--- a/AV/REP.xlsx
+++ b/AV/REP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\SEMS\AV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="15315" windowHeight="22275"/>
   </bookViews>
@@ -144,9 +149,6 @@
     <t>Azimuth</t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
     <t>Rx Site Code</t>
   </si>
   <si>
@@ -292,12 +294,15 @@
   </si>
   <si>
     <t>CKT Digital Repeater</t>
+  </si>
+  <si>
+    <t>Distance (Miles)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,6 +517,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -559,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,9 +600,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,6 +652,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,12 +848,12 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -819,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -831,28 +873,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="114.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -860,7 +902,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>4240</v>
@@ -877,13 +919,13 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -891,7 +933,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1">
         <v>4350</v>
@@ -912,15 +954,15 @@
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1">
         <v>3199</v>
@@ -941,7 +983,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
         <v>1050</v>
@@ -970,7 +1012,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -978,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>1850</v>
@@ -999,7 +1041,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1007,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1">
         <v>3000</v>
@@ -1027,18 +1069,18 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1">
         <v>2150</v>
@@ -1059,7 +1101,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1109,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1">
         <v>180</v>
@@ -1088,15 +1130,15 @@
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>4101</v>
@@ -1108,7 +1150,7 @@
         <v>-155.00810000000001</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1117,15 +1159,15 @@
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>3799</v>
@@ -1137,7 +1179,7 @@
         <v>-155.88579999999999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1146,7 +1188,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1">
         <v>2740</v>
@@ -1175,15 +1217,15 @@
       <c r="L12" s="10"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1">
         <v>1120</v>
@@ -1195,7 +1237,7 @@
         <v>-162.06110000000001</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1204,15 +1246,15 @@
       <c r="L13" s="10"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1">
         <v>850</v>
@@ -1233,15 +1275,15 @@
       <c r="L14" s="10"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
         <v>850</v>
@@ -1262,15 +1304,15 @@
       <c r="L15" s="10"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
         <v>850</v>
@@ -1291,15 +1333,15 @@
       <c r="L16" s="10"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>1160</v>
@@ -1320,15 +1362,15 @@
       <c r="L17" s="10"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1">
         <v>1160</v>
@@ -1349,15 +1391,15 @@
       <c r="L18" s="10"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1">
         <v>1500</v>
@@ -1378,15 +1420,15 @@
       <c r="L19" s="10"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1">
@@ -1396,7 +1438,7 @@
         <v>-163.74299999999999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1405,15 +1447,15 @@
       <c r="L20" s="10"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1">
         <v>2030</v>
@@ -1425,7 +1467,7 @@
         <v>-164.38730000000001</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1434,15 +1476,15 @@
       <c r="L21" s="10"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1">
         <v>1600</v>
@@ -1463,15 +1505,15 @@
       <c r="L22" s="10"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1">
         <v>1600</v>
@@ -1483,7 +1525,7 @@
         <v>-165.71010000000001</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1492,7 +1534,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="171.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1500,7 +1542,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>249</v>
@@ -1520,10 +1562,10 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="142.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1573,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1">
         <v>2575</v>
@@ -1551,10 +1593,10 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1">
         <v>2740</v>
@@ -1582,10 +1624,10 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1593,7 +1635,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1">
         <v>1995</v>
@@ -1614,7 +1656,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,7 +1664,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1">
         <v>938</v>
@@ -1643,7 +1685,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1651,7 +1693,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1">
         <v>645</v>
@@ -1672,15 +1714,15 @@
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1">
         <v>3160</v>
@@ -1692,7 +1734,7 @@
         <v>-155.74279999999999</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1701,15 +1743,15 @@
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1">
         <v>50</v>
@@ -1721,7 +1763,7 @@
         <v>-153.53501900000001</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1730,15 +1772,15 @@
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="C32" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="8">
         <v>1014</v>
@@ -1778,7 +1820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1790,7 +1832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
